--- a/notebook/paper_table.xlsx
+++ b/notebook/paper_table.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arames52/bcg_dust_continuum/notebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86EC2C5-6C03-C64B-9D8D-C017AE511E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C917A4-20D2-ED48-AD1C-F9EB959D4775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="32260" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -449,10 +460,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,10 +808,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6AA7FC-303C-934D-B8D3-C306A6C57310}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -936,7 +956,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -968,35 +988,35 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:10" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
         <v>0.92</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <v>5.2</v>
       </c>
     </row>
@@ -1675,4 +1695,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A262791D-04CC-7643-A3DC-E3D50FC433CB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O3" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>